--- a/data/trans_orig/P16A15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C590300A-0A68-4DB7-B094-73613514A756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC8DD996-C869-416C-B12E-09AD8CB5C666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{911F28B4-871D-4FA3-B906-180851F56FE3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B131BEF-FC3E-4CCD-85FC-E58577D88518}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="463">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -113,1048 +113,1090 @@
     <t>0,27%</t>
   </si>
   <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
+    <t>1,85%</t>
+  </si>
+  <si>
     <t>5,05%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>1,84%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>96,9%</t>
@@ -1163,235 +1205,229 @@
     <t>94,95%</t>
   </si>
   <si>
+    <t>98,15%</t>
+  </si>
+  <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>98,16%</t>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>98,01%</t>
   </si>
   <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>94,1%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
   </si>
   <si>
     <t>20,53%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
+    <t>23,12%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>80,04%</t>
   </si>
   <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>79,47%</t>
   </si>
   <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>76,88%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>31,26%</t>
   </si>
   <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>44,01%</t>
   </si>
   <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
   </si>
   <si>
     <t>38,85%</t>
   </si>
   <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
   </si>
   <si>
     <t>68,74%</t>
   </si>
   <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
   </si>
   <si>
     <t>55,99%</t>
   </si>
   <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
   </si>
   <si>
     <t>61,15%</t>
   </si>
   <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>83,42%</t>
   </si>
   <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D073AF0-00E0-4819-92C2-7A16DFF6AB0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480D8AFA-A1AB-4BA8-A98A-37CFEB1C1254}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2705,10 +2741,10 @@
         <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>160</v>
@@ -2717,13 +2753,13 @@
         <v>165613</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>256</v>
@@ -2732,13 +2768,13 @@
         <v>257014</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2789,13 @@
         <v>411065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>501</v>
@@ -2768,13 +2804,13 @@
         <v>511229</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>928</v>
@@ -2783,13 +2819,13 @@
         <v>922294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2893,13 @@
         <v>190649</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>259</v>
@@ -2872,13 +2908,13 @@
         <v>266762</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>456</v>
@@ -2887,13 +2923,13 @@
         <v>457412</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,16 +2941,16 @@
         <v>3016</v>
       </c>
       <c r="D23" s="7">
-        <v>3084876</v>
+        <v>3084877</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>3038</v>
@@ -2923,28 +2959,28 @@
         <v>3112436</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7">
         <v>6054</v>
       </c>
       <c r="N23" s="7">
-        <v>6197310</v>
+        <v>6197311</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,7 +2992,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2986,7 +3022,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3000,7 +3036,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3022,7 +3058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D40555E-A378-49FB-9853-CB0D2BB48CB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9438FC56-FCA5-40E6-A9C6-B3721DBCACA4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3039,7 +3075,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3152,7 +3188,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3167,7 +3203,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3182,7 +3218,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,7 +3236,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3215,7 +3251,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3230,7 +3266,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3301,13 +3337,13 @@
         <v>10456</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3316,13 +3352,13 @@
         <v>5836</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3331,13 +3367,13 @@
         <v>16292</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3388,13 @@
         <v>675782</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -3367,13 +3403,13 @@
         <v>603378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>1223</v>
@@ -3382,13 +3418,13 @@
         <v>1279159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3522,13 @@
         <v>42715</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3543,13 @@
         <v>656441</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -3522,13 +3558,13 @@
         <v>686832</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1271</v>
@@ -3537,13 +3573,13 @@
         <v>1343274</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3647,13 @@
         <v>49336</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -3626,13 +3662,13 @@
         <v>56075</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -3641,13 +3677,13 @@
         <v>105411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3698,13 @@
         <v>565281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>490</v>
@@ -3677,13 +3713,13 @@
         <v>557997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>993</v>
@@ -3692,13 +3728,13 @@
         <v>1123278</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3802,13 @@
         <v>83133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -3781,13 +3817,13 @@
         <v>102117</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>168</v>
@@ -3796,13 +3832,13 @@
         <v>185249</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3853,13 @@
         <v>344398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>311</v>
@@ -3832,13 +3868,13 @@
         <v>344690</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>628</v>
@@ -3847,13 +3883,13 @@
         <v>689089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,13 +3957,13 @@
         <v>185450</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>235</v>
@@ -3936,13 +3972,13 @@
         <v>252437</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>402</v>
@@ -3951,13 +3987,13 @@
         <v>437887</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +4008,13 @@
         <v>374187</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>457</v>
@@ -3987,13 +4023,13 @@
         <v>488275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>794</v>
@@ -4002,13 +4038,13 @@
         <v>862462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4112,13 @@
         <v>351988</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="H22" s="7">
         <v>400</v>
@@ -4091,13 +4127,13 @@
         <v>435567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M22" s="7">
         <v>716</v>
@@ -4106,13 +4142,13 @@
         <v>787555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4163,13 @@
         <v>3069194</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H23" s="7">
         <v>2887</v>
@@ -4142,13 +4178,13 @@
         <v>3110513</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M23" s="7">
         <v>5774</v>
@@ -4157,13 +4193,13 @@
         <v>6179706</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,7 +4255,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4241,7 +4277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2472264-B0ED-49C5-BF0C-13F5437BFB72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8533815A-CFDE-4090-835A-06DB906E8273}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4541,7 +4577,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4550,13 +4586,13 @@
         <v>3873</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4607,13 @@
         <v>587530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>578</v>
@@ -4586,10 +4622,10 @@
         <v>562637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4601,13 +4637,13 @@
         <v>1150167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4711,13 @@
         <v>19738</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4690,13 +4726,13 @@
         <v>5555</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4705,13 +4741,13 @@
         <v>25293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4762,13 @@
         <v>649359</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>659</v>
@@ -4741,13 +4777,13 @@
         <v>655831</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1279</v>
@@ -4756,13 +4792,13 @@
         <v>1305190</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4866,13 @@
         <v>48578</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4845,13 +4881,13 @@
         <v>51178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -4860,13 +4896,13 @@
         <v>99757</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4917,13 @@
         <v>597470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>553</v>
@@ -4896,28 +4932,28 @@
         <v>597899</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>1091</v>
       </c>
       <c r="N14" s="7">
-        <v>1195368</v>
+        <v>1195369</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,7 +4995,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4985,13 +5021,13 @@
         <v>74416</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -5000,13 +5036,13 @@
         <v>100663</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -5015,13 +5051,13 @@
         <v>175079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5072,13 @@
         <v>403502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>345</v>
@@ -5051,13 +5087,13 @@
         <v>396186</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>703</v>
@@ -5066,13 +5102,13 @@
         <v>799688</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5176,13 @@
         <v>172863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>195</v>
@@ -5155,13 +5191,13 @@
         <v>231648</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>381</v>
@@ -5170,13 +5206,13 @@
         <v>404511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5227,13 @@
         <v>418465</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>460</v>
@@ -5206,13 +5242,13 @@
         <v>546283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>901</v>
@@ -5221,13 +5257,13 @@
         <v>964748</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5331,13 @@
         <v>318563</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H22" s="7">
         <v>339</v>
@@ -5310,13 +5346,13 @@
         <v>389951</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
         <v>656</v>
@@ -5325,13 +5361,13 @@
         <v>708514</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5382,13 @@
         <v>3075787</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H23" s="7">
         <v>2999</v>
@@ -5361,13 +5397,13 @@
         <v>3154591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M23" s="7">
         <v>5913</v>
@@ -5376,13 +5412,13 @@
         <v>6230378</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,7 +5474,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5460,7 +5496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15F3467-65B5-4F11-A8F5-E54755FF5CF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931999A5-FDE6-4915-BBE0-F25B1A5792CD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5477,7 +5513,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5590,7 +5626,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5599,13 +5635,13 @@
         <v>3331</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5614,13 +5650,13 @@
         <v>3331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,7 +5674,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5650,10 +5686,10 @@
         <v>351626</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -5665,10 +5701,10 @@
         <v>729305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -5739,13 +5775,13 @@
         <v>1381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>365</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5754,13 +5790,13 @@
         <v>4726</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5769,13 +5805,13 @@
         <v>6108</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>368</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,10 +5826,10 @@
         <v>427015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>371</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5805,13 +5841,13 @@
         <v>493851</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
         <v>757</v>
@@ -5820,13 +5856,13 @@
         <v>920865</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5930,13 @@
         <v>17294</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -5909,13 +5945,13 @@
         <v>5354</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5924,13 +5960,13 @@
         <v>22648</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5981,13 @@
         <v>539958</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>834</v>
@@ -5960,13 +5996,13 @@
         <v>578122</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>1362</v>
@@ -5975,13 +6011,13 @@
         <v>1118079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +6085,13 @@
         <v>64223</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -6064,13 +6100,13 @@
         <v>44113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>130</v>
@@ -6079,13 +6115,13 @@
         <v>108336</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6136,13 @@
         <v>659767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>126</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>1073</v>
@@ -6115,28 +6151,28 @@
         <v>703148</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>1676</v>
       </c>
       <c r="N14" s="7">
-        <v>1362916</v>
+        <v>1362915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,7 +6214,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6204,13 +6240,13 @@
         <v>119596</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>208</v>
@@ -6219,13 +6255,13 @@
         <v>121873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>345</v>
@@ -6234,13 +6270,13 @@
         <v>241468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,13 +6291,13 @@
         <v>479490</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>792</v>
@@ -6270,13 +6306,13 @@
         <v>471703</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>1317</v>
@@ -6285,13 +6321,13 @@
         <v>951194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6395,13 @@
         <v>218112</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
         <v>650</v>
@@ -6374,13 +6410,13 @@
         <v>451280</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
         <v>984</v>
@@ -6389,13 +6425,13 @@
         <v>669392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,16 +6443,16 @@
         <v>694</v>
       </c>
       <c r="D20" s="7">
-        <v>479642</v>
+        <v>479643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>1056</v>
@@ -6425,13 +6461,13 @@
         <v>574091</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>1750</v>
@@ -6440,13 +6476,13 @@
         <v>1053734</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,7 +6494,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6514,13 +6550,13 @@
         <v>420607</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
         <v>944</v>
@@ -6529,13 +6565,13 @@
         <v>630677</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>1496</v>
@@ -6544,13 +6580,13 @@
         <v>1051284</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6601,13 @@
         <v>2963551</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="H23" s="7">
         <v>4416</v>
@@ -6580,28 +6616,28 @@
         <v>3172541</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="M23" s="7">
         <v>7239</v>
       </c>
       <c r="N23" s="7">
-        <v>6136091</v>
+        <v>6136092</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,7 +6679,7 @@
         <v>8735</v>
       </c>
       <c r="N24" s="7">
-        <v>7187375</v>
+        <v>7187376</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6657,7 +6693,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC8DD996-C869-416C-B12E-09AD8CB5C666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F6E46A-F92B-4F55-B0D3-8E3822C7D7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B131BEF-FC3E-4CCD-85FC-E58577D88518}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8FD4A1FE-52CA-454B-AD8E-20F015E9F1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="461">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -113,13 +113,13 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,93%</t>
+    <t>0,95%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,19%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -128,25 +128,25 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,07%</t>
+    <t>99,05%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,81%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>99,26%</t>
+    <t>99,35%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -158,1102 +158,1096 @@
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
     <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
   </si>
   <si>
     <t>94,1%</t>
@@ -1839,7 +1833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480D8AFA-A1AB-4BA8-A98A-37CFEB1C1254}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428C7EA0-EA09-4683-88E2-97203A4D94C6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2941,7 +2935,7 @@
         <v>3016</v>
       </c>
       <c r="D23" s="7">
-        <v>3084877</v>
+        <v>3084876</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>122</v>
@@ -2992,7 +2986,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -3058,7 +3052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9438FC56-FCA5-40E6-A9C6-B3721DBCACA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01A73B0-F7E0-471A-B80E-EB6351A16AD0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3370,10 +3364,10 @@
         <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3382,13 @@
         <v>675782</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -3403,13 +3397,13 @@
         <v>603378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>1223</v>
@@ -3418,13 +3412,13 @@
         <v>1279159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3486,13 @@
         <v>23613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -3507,13 +3501,13 @@
         <v>19103</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3522,13 +3516,13 @@
         <v>42715</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3537,13 @@
         <v>656441</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -3558,13 +3552,13 @@
         <v>686832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1271</v>
@@ -3573,13 +3567,13 @@
         <v>1343274</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3641,13 @@
         <v>49336</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -3662,13 +3656,13 @@
         <v>56075</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -3677,13 +3671,13 @@
         <v>105411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3692,13 @@
         <v>565281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>490</v>
@@ -3713,13 +3707,13 @@
         <v>557997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>993</v>
@@ -3728,13 +3722,13 @@
         <v>1123278</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3796,13 @@
         <v>83133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -3817,13 +3811,13 @@
         <v>102117</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>168</v>
@@ -3832,13 +3826,13 @@
         <v>185249</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3847,13 @@
         <v>344398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>311</v>
@@ -3868,13 +3862,13 @@
         <v>344690</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>628</v>
@@ -3883,13 +3877,13 @@
         <v>689089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3951,13 @@
         <v>185450</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>235</v>
@@ -3972,13 +3966,13 @@
         <v>252437</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>402</v>
@@ -3987,13 +3981,13 @@
         <v>437887</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4002,13 @@
         <v>374187</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>457</v>
@@ -4023,13 +4017,13 @@
         <v>488275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>794</v>
@@ -4038,13 +4032,13 @@
         <v>862462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4106,13 @@
         <v>351988</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H22" s="7">
         <v>400</v>
@@ -4127,13 +4121,13 @@
         <v>435567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M22" s="7">
         <v>716</v>
@@ -4142,13 +4136,13 @@
         <v>787555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4157,13 @@
         <v>3069194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H23" s="7">
         <v>2887</v>
@@ -4178,13 +4172,13 @@
         <v>3110513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M23" s="7">
         <v>5774</v>
@@ -4193,13 +4187,13 @@
         <v>6179706</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,7 +4271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8533815A-CFDE-4090-835A-06DB906E8273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BF79DE-EB0A-4D1B-A6F3-126A3537CEC2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4294,7 +4288,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4407,7 +4401,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4422,7 +4416,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4437,7 +4431,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,7 +4449,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4470,7 +4464,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4485,7 +4479,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4556,13 +4550,13 @@
         <v>2966</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4571,13 +4565,13 @@
         <v>907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4586,13 +4580,13 @@
         <v>3873</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4601,13 @@
         <v>587530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>578</v>
@@ -4622,10 +4616,10 @@
         <v>562637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4637,13 +4631,13 @@
         <v>1150167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4705,13 @@
         <v>19738</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4726,13 +4720,13 @@
         <v>5555</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4741,13 +4735,13 @@
         <v>25293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4756,13 @@
         <v>649359</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>659</v>
@@ -4777,13 +4771,13 @@
         <v>655831</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
         <v>1279</v>
@@ -4792,13 +4786,13 @@
         <v>1305190</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4860,13 @@
         <v>48578</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4881,13 +4875,13 @@
         <v>51178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -4896,13 +4890,13 @@
         <v>99757</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4911,13 @@
         <v>597470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>553</v>
@@ -4932,28 +4926,28 @@
         <v>597899</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>1091</v>
       </c>
       <c r="N14" s="7">
-        <v>1195369</v>
+        <v>1195368</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,7 +4989,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5021,13 +5015,13 @@
         <v>74416</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -5036,13 +5030,13 @@
         <v>100663</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -5051,13 +5045,13 @@
         <v>175079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5066,13 @@
         <v>403502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>345</v>
@@ -5087,13 +5081,13 @@
         <v>396186</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>703</v>
@@ -5102,13 +5096,13 @@
         <v>799688</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5170,13 @@
         <v>172863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>195</v>
@@ -5191,13 +5185,13 @@
         <v>231648</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M19" s="7">
         <v>381</v>
@@ -5206,13 +5200,13 @@
         <v>404511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5221,13 @@
         <v>418465</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>460</v>
@@ -5242,13 +5236,13 @@
         <v>546283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>901</v>
@@ -5257,13 +5251,13 @@
         <v>964748</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5325,13 @@
         <v>318563</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H22" s="7">
         <v>339</v>
@@ -5346,13 +5340,13 @@
         <v>389951</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M22" s="7">
         <v>656</v>
@@ -5361,13 +5355,13 @@
         <v>708514</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5376,13 @@
         <v>3075787</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H23" s="7">
         <v>2999</v>
@@ -5397,13 +5391,13 @@
         <v>3154591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M23" s="7">
         <v>5913</v>
@@ -5412,13 +5406,13 @@
         <v>6230378</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,7 +5490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931999A5-FDE6-4915-BBE0-F25B1A5792CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE74852-B4B5-42FB-8E71-EBFB1AA7D409}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5513,7 +5507,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5626,7 +5620,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5635,13 +5629,13 @@
         <v>3331</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5650,13 +5644,13 @@
         <v>3331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,7 +5668,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5686,10 +5680,10 @@
         <v>351626</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -5701,10 +5695,10 @@
         <v>729305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -5775,13 +5769,13 @@
         <v>1381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>265</v>
+        <v>368</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5790,13 +5784,13 @@
         <v>4726</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>366</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>367</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5805,13 +5799,13 @@
         <v>6108</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,10 +5820,10 @@
         <v>427015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>275</v>
+        <v>373</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5841,10 +5835,10 @@
         <v>493851</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>372</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>373</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>138</v>
@@ -5951,7 +5945,7 @@
         <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5960,13 +5954,13 @@
         <v>22648</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5975,13 @@
         <v>539958</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>834</v>
@@ -5996,13 +5990,13 @@
         <v>578122</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>1362</v>
@@ -6011,13 +6005,13 @@
         <v>1118079</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6079,13 @@
         <v>64223</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -6100,13 +6094,13 @@
         <v>44113</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>130</v>
@@ -6115,13 +6109,13 @@
         <v>108336</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6130,13 @@
         <v>659767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>1073</v>
@@ -6151,13 +6145,13 @@
         <v>703148</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>1676</v>
@@ -6166,13 +6160,13 @@
         <v>1362915</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6234,13 @@
         <v>119596</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>208</v>
@@ -6255,13 +6249,13 @@
         <v>121873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>345</v>
@@ -6270,13 +6264,13 @@
         <v>241468</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6285,13 @@
         <v>479490</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>792</v>
@@ -6306,13 +6300,13 @@
         <v>471703</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>1317</v>
@@ -6321,13 +6315,13 @@
         <v>951194</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,13 +6389,13 @@
         <v>218112</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H19" s="7">
         <v>650</v>
@@ -6410,13 +6404,13 @@
         <v>451280</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M19" s="7">
         <v>984</v>
@@ -6425,13 +6419,13 @@
         <v>669392</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,13 +6440,13 @@
         <v>479643</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>1056</v>
@@ -6461,13 +6455,13 @@
         <v>574091</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>1750</v>
@@ -6476,13 +6470,13 @@
         <v>1053734</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6544,13 @@
         <v>420607</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H22" s="7">
         <v>944</v>
@@ -6565,13 +6559,13 @@
         <v>630677</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>1496</v>
@@ -6580,13 +6574,13 @@
         <v>1051284</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6595,13 @@
         <v>2963551</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H23" s="7">
         <v>4416</v>
@@ -6616,13 +6610,13 @@
         <v>3172541</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M23" s="7">
         <v>7239</v>
@@ -6631,13 +6625,13 @@
         <v>6136092</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F6E46A-F92B-4F55-B0D3-8E3822C7D7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{483D55F8-8A96-444E-84B5-70025BDFF9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8FD4A1FE-52CA-454B-AD8E-20F015E9F1EB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD40D25C-BD83-4AE0-ACBA-7208902E999A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="451">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -113,1315 +113,1285 @@
     <t>0,27%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
   </si>
   <si>
     <t>81,65%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
     <t>31,26%</t>
   </si>
   <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>44,01%</t>
   </si>
   <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
   </si>
   <si>
     <t>38,85%</t>
   </si>
   <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
   </si>
   <si>
     <t>68,74%</t>
   </si>
   <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
   </si>
   <si>
     <t>55,99%</t>
   </si>
   <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
   </si>
   <si>
     <t>61,15%</t>
   </si>
   <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
   </si>
   <si>
     <t>83,42%</t>
   </si>
   <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428C7EA0-EA09-4683-88E2-97203A4D94C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C562ECA9-98E3-4427-A387-9775A35F1755}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2735,10 +2705,10 @@
         <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>160</v>
@@ -2747,13 +2717,13 @@
         <v>165613</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>256</v>
@@ -2762,13 +2732,13 @@
         <v>257014</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2753,13 @@
         <v>411065</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
         <v>501</v>
@@ -2798,13 +2768,13 @@
         <v>511229</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>928</v>
@@ -2813,13 +2783,13 @@
         <v>922294</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2857,13 @@
         <v>190649</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>259</v>
@@ -2902,13 +2872,13 @@
         <v>266762</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>456</v>
@@ -2917,13 +2887,13 @@
         <v>457412</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2908,13 @@
         <v>3084876</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>3038</v>
@@ -2953,28 +2923,28 @@
         <v>3112436</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M23" s="7">
         <v>6054</v>
       </c>
       <c r="N23" s="7">
-        <v>6197311</v>
+        <v>6197310</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,7 +2986,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3030,7 +3000,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3052,7 +3022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01A73B0-F7E0-471A-B80E-EB6351A16AD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E248FF2D-B036-4C83-A142-CC870AE05ADC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3069,7 +3039,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3182,7 +3152,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3197,7 +3167,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3212,7 +3182,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,7 +3200,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3245,7 +3215,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3260,7 +3230,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3331,13 +3301,13 @@
         <v>10456</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3346,13 +3316,13 @@
         <v>5836</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3361,13 +3331,13 @@
         <v>16292</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3352,13 @@
         <v>675782</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -3397,13 +3367,13 @@
         <v>603378</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>1223</v>
@@ -3412,13 +3382,13 @@
         <v>1279159</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3456,13 @@
         <v>23613</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -3501,13 +3471,13 @@
         <v>19103</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3516,13 +3486,13 @@
         <v>42715</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3507,13 @@
         <v>656441</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -3552,13 +3522,13 @@
         <v>686832</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1271</v>
@@ -3567,13 +3537,13 @@
         <v>1343274</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3611,13 @@
         <v>49336</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -3656,13 +3626,13 @@
         <v>56075</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -3671,13 +3641,13 @@
         <v>105411</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3662,13 @@
         <v>565281</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>490</v>
@@ -3707,13 +3677,13 @@
         <v>557997</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>993</v>
@@ -4112,7 +4082,7 @@
         <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="H22" s="7">
         <v>400</v>
@@ -4121,13 +4091,13 @@
         <v>435567</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M22" s="7">
         <v>716</v>
@@ -4136,13 +4106,13 @@
         <v>787555</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4127,13 @@
         <v>3069194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>237</v>
+        <v>90</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H23" s="7">
         <v>2887</v>
@@ -4172,13 +4142,13 @@
         <v>3110513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M23" s="7">
         <v>5774</v>
@@ -4187,13 +4157,13 @@
         <v>6179706</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,7 +4219,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4271,7 +4241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BF79DE-EB0A-4D1B-A6F3-126A3537CEC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C823ED91-25E0-46C3-85E0-ECCFE22495F2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4288,7 +4258,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4401,7 +4371,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4416,7 +4386,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4431,7 +4401,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,7 +4419,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4464,7 +4434,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4479,7 +4449,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4550,13 +4520,13 @@
         <v>2966</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4565,13 +4535,13 @@
         <v>907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4580,13 +4550,13 @@
         <v>3873</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4571,13 @@
         <v>587530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>578</v>
@@ -4616,10 +4586,10 @@
         <v>562637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4631,13 +4601,13 @@
         <v>1150167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +4675,13 @@
         <v>19738</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4720,13 +4690,13 @@
         <v>5555</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4735,13 +4705,13 @@
         <v>25293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4726,13 @@
         <v>649359</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>659</v>
@@ -4771,13 +4741,13 @@
         <v>655831</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1279</v>
@@ -4786,13 +4756,13 @@
         <v>1305190</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,13 +4830,13 @@
         <v>48578</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4875,13 +4845,13 @@
         <v>51178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -4890,13 +4860,13 @@
         <v>99757</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4881,13 @@
         <v>597470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>553</v>
@@ -4926,13 +4896,13 @@
         <v>597899</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>1091</v>
@@ -4941,13 +4911,13 @@
         <v>1195368</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +4985,13 @@
         <v>74416</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -5030,13 +5000,13 @@
         <v>100663</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -5045,13 +5015,13 @@
         <v>175079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5036,13 @@
         <v>403502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>345</v>
@@ -5081,13 +5051,13 @@
         <v>396186</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>703</v>
@@ -5096,13 +5066,13 @@
         <v>799688</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5140,13 @@
         <v>172863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>195</v>
@@ -5185,13 +5155,13 @@
         <v>231648</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>381</v>
@@ -5200,13 +5170,13 @@
         <v>404511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5191,13 @@
         <v>418465</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>460</v>
@@ -5236,13 +5206,13 @@
         <v>546283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>901</v>
@@ -5251,13 +5221,13 @@
         <v>964748</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5295,13 @@
         <v>318563</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H22" s="7">
         <v>339</v>
@@ -5340,13 +5310,13 @@
         <v>389951</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M22" s="7">
         <v>656</v>
@@ -5355,13 +5325,13 @@
         <v>708514</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5346,13 @@
         <v>3075787</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H23" s="7">
         <v>2999</v>
@@ -5391,13 +5361,13 @@
         <v>3154591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="M23" s="7">
         <v>5913</v>
@@ -5406,13 +5376,13 @@
         <v>6230378</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,7 +5438,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5490,7 +5460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE74852-B4B5-42FB-8E71-EBFB1AA7D409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFCDF12-0F78-4732-BC23-C4F9408DC268}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5507,7 +5477,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5620,7 +5590,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5629,13 +5599,13 @@
         <v>3331</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5644,13 +5614,13 @@
         <v>3331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,7 +5638,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5680,10 +5650,10 @@
         <v>351626</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -5695,10 +5665,10 @@
         <v>729305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -5769,13 +5739,13 @@
         <v>1381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>368</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5784,13 +5754,13 @@
         <v>4726</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>359</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5799,13 +5769,13 @@
         <v>6108</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>369</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>370</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,10 +5790,10 @@
         <v>427015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>372</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>373</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5835,13 +5805,13 @@
         <v>493851</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>362</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>757</v>
@@ -5850,13 +5820,13 @@
         <v>920865</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5894,13 @@
         <v>17294</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -5939,13 +5909,13 @@
         <v>5354</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5954,13 +5924,13 @@
         <v>22648</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5945,13 @@
         <v>539958</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="H11" s="7">
         <v>834</v>
@@ -5990,13 +5960,13 @@
         <v>578122</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>1362</v>
@@ -6005,13 +5975,13 @@
         <v>1118079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,13 +6049,13 @@
         <v>64223</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -6094,13 +6064,13 @@
         <v>44113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>130</v>
@@ -6109,13 +6079,13 @@
         <v>108336</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6100,13 @@
         <v>659767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>1073</v>
@@ -6145,28 +6115,28 @@
         <v>703148</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>1676</v>
       </c>
       <c r="N14" s="7">
-        <v>1362915</v>
+        <v>1362916</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,7 +6178,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6234,13 +6204,13 @@
         <v>119596</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>208</v>
@@ -6249,13 +6219,13 @@
         <v>121873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>345</v>
@@ -6264,13 +6234,13 @@
         <v>241468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6255,13 @@
         <v>479490</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>792</v>
@@ -6300,13 +6270,13 @@
         <v>471703</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>1317</v>
@@ -6315,13 +6285,13 @@
         <v>951194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6359,13 @@
         <v>218112</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>650</v>
@@ -6404,13 +6374,13 @@
         <v>451280</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>984</v>
@@ -6419,13 +6389,13 @@
         <v>669392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,16 +6407,16 @@
         <v>694</v>
       </c>
       <c r="D20" s="7">
-        <v>479643</v>
+        <v>479642</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>1056</v>
@@ -6455,13 +6425,13 @@
         <v>574091</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>1750</v>
@@ -6470,13 +6440,13 @@
         <v>1053734</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,7 +6458,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6544,13 +6514,13 @@
         <v>420607</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
         <v>944</v>
@@ -6559,13 +6529,13 @@
         <v>630677</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="M22" s="7">
         <v>1496</v>
@@ -6574,13 +6544,13 @@
         <v>1051284</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6565,13 @@
         <v>2963551</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
         <v>4416</v>
@@ -6610,28 +6580,28 @@
         <v>3172541</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
         <v>7239</v>
       </c>
       <c r="N23" s="7">
-        <v>6136092</v>
+        <v>6136091</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,7 +6643,7 @@
         <v>8735</v>
       </c>
       <c r="N24" s="7">
-        <v>7187376</v>
+        <v>7187375</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6687,7 +6657,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{483D55F8-8A96-444E-84B5-70025BDFF9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E669789D-A62B-4C67-B195-93FBB314FF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD40D25C-BD83-4AE0-ACBA-7208902E999A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{90C76B5B-E662-4EC9-BAD2-D2038280C325}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="522">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -152,7 +152,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,37%</t>
@@ -209,7 +209,7 @@
     <t>98,53%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>5,59%</t>
@@ -266,7 +266,7 @@
     <t>95,97%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>13,73%</t>
@@ -323,55 +323,118 @@
     <t>87,9%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
   </si>
   <si>
     <t>75,53%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>5,82%</t>
@@ -668,58 +731,112 @@
     <t>81,7%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
   </si>
   <si>
     <t>10,29%</t>
@@ -977,58 +1094,100 @@
     <t>84,63%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
   </si>
   <si>
     <t>9,39%</t>
@@ -1091,307 +1250,361 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
 </sst>
 </file>
@@ -1803,8 +2016,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C562ECA9-98E3-4427-A387-9775A35F1755}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5EFBAA-6110-4253-A7FA-EFCB3A7B7FA2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2696,49 +2909,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7">
-        <v>91401</v>
+        <v>51134</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="I19" s="7">
-        <v>165613</v>
+        <v>84966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="N19" s="7">
-        <v>257014</v>
+        <v>136100</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,49 +2960,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>427</v>
+        <v>248</v>
       </c>
       <c r="D20" s="7">
-        <v>411065</v>
+        <v>241449</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
-        <v>501</v>
+        <v>280</v>
       </c>
       <c r="I20" s="7">
-        <v>511229</v>
+        <v>257968</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
-        <v>928</v>
+        <v>528</v>
       </c>
       <c r="N20" s="7">
-        <v>922294</v>
+        <v>499417</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,10 +3011,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2813,10 +3026,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2828,10 +3041,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2845,55 +3058,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="D22" s="7">
-        <v>190649</v>
+        <v>40267</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="I22" s="7">
-        <v>266762</v>
+        <v>80648</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
-        <v>456</v>
+        <v>110</v>
       </c>
       <c r="N22" s="7">
-        <v>457412</v>
+        <v>120914</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,49 +3115,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3016</v>
+        <v>179</v>
       </c>
       <c r="D23" s="7">
-        <v>3084876</v>
+        <v>169616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
-        <v>3038</v>
+        <v>221</v>
       </c>
       <c r="I23" s="7">
-        <v>3112436</v>
+        <v>253260</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
-        <v>6054</v>
+        <v>400</v>
       </c>
       <c r="N23" s="7">
-        <v>6197310</v>
+        <v>422877</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,63 +3166,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>197</v>
+      </c>
+      <c r="D25" s="7">
+        <v>190649</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="7">
+        <v>259</v>
+      </c>
+      <c r="I25" s="7">
+        <v>266762</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M25" s="7">
+        <v>456</v>
+      </c>
+      <c r="N25" s="7">
+        <v>457412</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3016</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3084876</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3038</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3112435</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6054</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6197310</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>129</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3022,8 +3391,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E248FF2D-B036-4C83-A142-CC870AE05ADC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54301493-9BC4-4E31-8CDA-954BAD8509D8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3039,7 +3408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3152,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3167,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3182,7 +3551,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,7 +3569,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3215,7 +3584,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3230,7 +3599,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3301,13 +3670,13 @@
         <v>10456</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3316,13 +3685,13 @@
         <v>5836</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3331,13 +3700,13 @@
         <v>16292</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3721,13 @@
         <v>675782</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -3367,13 +3736,13 @@
         <v>603378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>1223</v>
@@ -3382,13 +3751,13 @@
         <v>1279159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3825,13 @@
         <v>23613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -3471,13 +3840,13 @@
         <v>19103</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3486,13 +3855,13 @@
         <v>42715</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3876,13 @@
         <v>656441</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -3522,13 +3891,13 @@
         <v>686832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1271</v>
@@ -3537,13 +3906,13 @@
         <v>1343274</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3980,13 @@
         <v>49336</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -3626,13 +3995,13 @@
         <v>56075</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -3641,13 +4010,13 @@
         <v>105411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +4031,13 @@
         <v>565281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>490</v>
@@ -3677,13 +4046,13 @@
         <v>557997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>993</v>
@@ -3692,13 +4061,13 @@
         <v>1123278</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +4135,13 @@
         <v>83133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -3781,13 +4150,13 @@
         <v>102117</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>168</v>
@@ -3796,13 +4165,13 @@
         <v>185249</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +4186,13 @@
         <v>344398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>311</v>
@@ -3832,13 +4201,13 @@
         <v>344690</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>628</v>
@@ -3847,13 +4216,13 @@
         <v>689089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,49 +4284,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="D19" s="7">
-        <v>185450</v>
+        <v>106453</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
+        <v>111</v>
+      </c>
+      <c r="I19" s="7">
+        <v>115448</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="I19" s="7">
-        <v>252437</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="M19" s="7">
-        <v>402</v>
+        <v>208</v>
       </c>
       <c r="N19" s="7">
-        <v>437887</v>
+        <v>221901</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,49 +4335,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>337</v>
+        <v>185</v>
       </c>
       <c r="D20" s="7">
-        <v>374187</v>
+        <v>203333</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
-        <v>457</v>
+        <v>233</v>
       </c>
       <c r="I20" s="7">
-        <v>488275</v>
+        <v>238548</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
-        <v>794</v>
+        <v>418</v>
       </c>
       <c r="N20" s="7">
-        <v>862462</v>
+        <v>441881</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,10 +4386,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4032,10 +4401,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>692</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>740712</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4047,10 +4416,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1196</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1300349</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4064,55 +4433,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>316</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>351988</v>
+        <v>78997</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
-        <v>400</v>
+        <v>124</v>
       </c>
       <c r="I22" s="7">
-        <v>435567</v>
+        <v>136988</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
-        <v>716</v>
+        <v>194</v>
       </c>
       <c r="N22" s="7">
-        <v>787555</v>
+        <v>215986</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,49 +4490,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>2887</v>
+        <v>152</v>
       </c>
       <c r="D23" s="7">
-        <v>3069194</v>
+        <v>170854</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
-        <v>2887</v>
+        <v>224</v>
       </c>
       <c r="I23" s="7">
-        <v>3110513</v>
+        <v>249728</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
-        <v>5774</v>
+        <v>376</v>
       </c>
       <c r="N23" s="7">
-        <v>6179706</v>
+        <v>420581</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,63 +4541,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>348</v>
+      </c>
+      <c r="I24" s="7">
+        <v>386716</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>570</v>
+      </c>
+      <c r="N24" s="7">
+        <v>636567</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>316</v>
+      </c>
+      <c r="D25" s="7">
+        <v>351988</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="7">
+        <v>400</v>
+      </c>
+      <c r="I25" s="7">
+        <v>435567</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M25" s="7">
+        <v>716</v>
+      </c>
+      <c r="N25" s="7">
+        <v>787555</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2887</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3069193</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2887</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3110513</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5774</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6179706</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3203</v>
       </c>
-      <c r="D24" s="7">
-        <v>3421182</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3421181</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3287</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3546080</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6490</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6967261</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>129</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4241,8 +4766,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C823ED91-25E0-46C3-85E0-ECCFE22495F2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA85226A-BBEB-4832-87BE-7D0E03E2A5B8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4258,7 +4783,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4371,7 +4896,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4386,7 +4911,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4401,7 +4926,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,7 +4944,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4434,7 +4959,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4449,7 +4974,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4520,13 +5045,13 @@
         <v>2966</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4535,7 +5060,7 @@
         <v>907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -4550,13 +5075,13 @@
         <v>3873</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +5096,13 @@
         <v>587530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>578</v>
@@ -4586,7 +5111,7 @@
         <v>562637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>31</v>
@@ -4601,13 +5126,13 @@
         <v>1150167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +5200,13 @@
         <v>19738</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4690,13 +5215,13 @@
         <v>5555</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4705,13 +5230,13 @@
         <v>25293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +5251,13 @@
         <v>649359</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>659</v>
@@ -4741,13 +5266,13 @@
         <v>655831</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>1279</v>
@@ -4756,13 +5281,13 @@
         <v>1305190</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +5355,13 @@
         <v>48578</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4845,13 +5370,13 @@
         <v>51178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -4863,10 +5388,10 @@
         <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +5406,13 @@
         <v>597470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="H14" s="7">
         <v>553</v>
@@ -4896,13 +5421,13 @@
         <v>597899</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="M14" s="7">
         <v>1091</v>
@@ -4914,10 +5439,10 @@
         <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5510,13 @@
         <v>74416</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -5000,13 +5525,13 @@
         <v>100663</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -5015,13 +5540,13 @@
         <v>175079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5561,13 @@
         <v>403502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>345</v>
@@ -5051,13 +5576,13 @@
         <v>396186</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>703</v>
@@ -5066,13 +5591,13 @@
         <v>799688</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,49 +5659,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="D19" s="7">
-        <v>172863</v>
+        <v>98767</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="H19" s="7">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="I19" s="7">
-        <v>231648</v>
+        <v>106663</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="M19" s="7">
-        <v>381</v>
+        <v>198</v>
       </c>
       <c r="N19" s="7">
-        <v>404511</v>
+        <v>205430</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,49 +5710,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>441</v>
+        <v>228</v>
       </c>
       <c r="D20" s="7">
-        <v>418465</v>
+        <v>235563</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
-        <v>460</v>
+        <v>253</v>
       </c>
       <c r="I20" s="7">
-        <v>546283</v>
+        <v>271099</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
-        <v>901</v>
+        <v>481</v>
       </c>
       <c r="N20" s="7">
-        <v>964748</v>
+        <v>506662</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,10 +5761,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5251,10 +5776,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -5266,10 +5791,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5283,55 +5808,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>317</v>
+        <v>89</v>
       </c>
       <c r="D22" s="7">
-        <v>318563</v>
+        <v>74096</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
-        <v>339</v>
+        <v>94</v>
       </c>
       <c r="I22" s="7">
-        <v>389951</v>
+        <v>124985</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
-        <v>656</v>
+        <v>183</v>
       </c>
       <c r="N22" s="7">
-        <v>708514</v>
+        <v>199081</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,49 +5865,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>2914</v>
+        <v>213</v>
       </c>
       <c r="D23" s="7">
-        <v>3075787</v>
+        <v>182902</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="H23" s="7">
-        <v>2999</v>
+        <v>207</v>
       </c>
       <c r="I23" s="7">
-        <v>3154591</v>
+        <v>275184</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M23" s="7">
-        <v>5913</v>
+        <v>420</v>
       </c>
       <c r="N23" s="7">
-        <v>6230378</v>
+        <v>458086</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>345</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,63 +5916,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>317</v>
+      </c>
+      <c r="D25" s="7">
+        <v>318563</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H25" s="7">
+        <v>339</v>
+      </c>
+      <c r="I25" s="7">
+        <v>389951</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M25" s="7">
+        <v>656</v>
+      </c>
+      <c r="N25" s="7">
+        <v>708514</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2914</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3075787</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2999</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3154591</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5913</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6230378</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>129</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5460,8 +6141,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFCDF12-0F78-4732-BC23-C4F9408DC268}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67A1F20-CFD5-4971-9A40-51AA07A67A99}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5477,7 +6158,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5590,37 +6271,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3331</v>
+        <v>2707</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>3331</v>
+        <v>2707</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>352</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,13 +6313,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5647,13 +6328,13 @@
         <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>351626</v>
+        <v>310493</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -5662,13 +6343,13 @@
         <v>377</v>
       </c>
       <c r="N5" s="7">
-        <v>729305</v>
+        <v>710480</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>357</v>
+        <v>18</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -5683,7 +6364,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -5698,7 +6379,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5713,7 +6394,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5736,46 +6417,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1381</v>
+        <v>1268</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>410</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>4726</v>
+        <v>4228</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>412</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>6108</v>
+        <v>5496</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>412</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +6468,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>427015</v>
+        <v>422279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>415</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5802,31 +6483,31 @@
         <v>456</v>
       </c>
       <c r="I8" s="7">
-        <v>493851</v>
+        <v>507276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>418</v>
       </c>
       <c r="M8" s="7">
         <v>757</v>
       </c>
       <c r="N8" s="7">
-        <v>920865</v>
+        <v>929555</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>419</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,7 +6519,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -5853,7 +6534,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5868,7 +6549,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5891,46 +6572,46 @@
         <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>17294</v>
+        <v>16714</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>5354</v>
+        <v>4917</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>22648</v>
+        <v>21631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,46 +6623,46 @@
         <v>528</v>
       </c>
       <c r="D11" s="7">
-        <v>539958</v>
+        <v>519624</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="H11" s="7">
         <v>834</v>
       </c>
       <c r="I11" s="7">
-        <v>578122</v>
+        <v>537551</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>432</v>
       </c>
       <c r="M11" s="7">
         <v>1362</v>
       </c>
       <c r="N11" s="7">
-        <v>1118079</v>
+        <v>1057175</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>433</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,7 +6674,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -6008,7 +6689,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6023,7 +6704,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6046,46 +6727,46 @@
         <v>62</v>
       </c>
       <c r="D13" s="7">
-        <v>64223</v>
+        <v>61551</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
       </c>
       <c r="I13" s="7">
-        <v>44113</v>
+        <v>40522</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="M13" s="7">
         <v>130</v>
       </c>
       <c r="N13" s="7">
-        <v>108336</v>
+        <v>102072</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,46 +6778,46 @@
         <v>603</v>
       </c>
       <c r="D14" s="7">
-        <v>659767</v>
+        <v>826235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="H14" s="7">
         <v>1073</v>
       </c>
       <c r="I14" s="7">
-        <v>703148</v>
+        <v>672359</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="M14" s="7">
         <v>1676</v>
       </c>
       <c r="N14" s="7">
-        <v>1362916</v>
+        <v>1498595</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,7 +6829,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -6163,7 +6844,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6178,7 +6859,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6201,46 +6882,46 @@
         <v>137</v>
       </c>
       <c r="D16" s="7">
-        <v>119596</v>
+        <v>112954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="H16" s="7">
         <v>208</v>
       </c>
       <c r="I16" s="7">
-        <v>121873</v>
+        <v>112339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="M16" s="7">
         <v>345</v>
       </c>
       <c r="N16" s="7">
-        <v>241468</v>
+        <v>225293</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,46 +6933,46 @@
         <v>525</v>
       </c>
       <c r="D17" s="7">
-        <v>479490</v>
+        <v>447283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="H17" s="7">
         <v>792</v>
       </c>
       <c r="I17" s="7">
-        <v>471703</v>
+        <v>432548</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="M17" s="7">
         <v>1317</v>
       </c>
       <c r="N17" s="7">
-        <v>951194</v>
+        <v>879831</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,7 +6984,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -6318,7 +6999,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6333,7 +7014,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192662</v>
+        <v>1105124</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6353,49 +7034,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>334</v>
+        <v>163</v>
       </c>
       <c r="D19" s="7">
-        <v>218112</v>
+        <v>103026</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
-        <v>650</v>
+        <v>272</v>
       </c>
       <c r="I19" s="7">
-        <v>451280</v>
+        <v>335912</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
-        <v>984</v>
+        <v>435</v>
       </c>
       <c r="N19" s="7">
-        <v>669392</v>
+        <v>438938</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,49 +7085,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>694</v>
+        <v>407</v>
       </c>
       <c r="D20" s="7">
-        <v>479642</v>
+        <v>265139</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="H20" s="7">
-        <v>1056</v>
+        <v>555</v>
       </c>
       <c r="I20" s="7">
-        <v>574091</v>
+        <v>272456</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="M20" s="7">
-        <v>1750</v>
+        <v>962</v>
       </c>
       <c r="N20" s="7">
-        <v>1053734</v>
+        <v>537595</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,10 +7136,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6470,10 +7151,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025371</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6485,10 +7166,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>2734</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1723126</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6502,55 +7183,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>552</v>
+        <v>171</v>
       </c>
       <c r="D22" s="7">
-        <v>420607</v>
+        <v>100424</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="H22" s="7">
-        <v>944</v>
+        <v>378</v>
       </c>
       <c r="I22" s="7">
-        <v>630677</v>
+        <v>177784</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="M22" s="7">
-        <v>1496</v>
+        <v>549</v>
       </c>
       <c r="N22" s="7">
-        <v>1051284</v>
+        <v>278208</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,49 +7240,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>2823</v>
+        <v>287</v>
       </c>
       <c r="D23" s="7">
-        <v>2963551</v>
+        <v>182335</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="H23" s="7">
-        <v>4416</v>
+        <v>501</v>
       </c>
       <c r="I23" s="7">
-        <v>3172541</v>
+        <v>246941</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="M23" s="7">
-        <v>7239</v>
+        <v>788</v>
       </c>
       <c r="N23" s="7">
-        <v>6136091</v>
+        <v>429276</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,63 +7291,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424725</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707484</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>552</v>
+      </c>
+      <c r="D25" s="7">
+        <v>395938</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H25" s="7">
+        <v>944</v>
+      </c>
+      <c r="I25" s="7">
+        <v>678408</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1496</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1074346</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2823</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3062882</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4416</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2979625</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7239</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6042507</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3375</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458820</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>5360</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803218</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658033</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>8735</v>
       </c>
-      <c r="N24" s="7">
-        <v>7187375</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>129</v>
+      <c r="N27" s="7">
+        <v>7116853</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
